--- a/template.xlsx
+++ b/template.xlsx
@@ -591,8 +591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19:C19"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24:G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -782,8 +782,11 @@
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="D24" s="24"/>
+    <row r="24" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D24" s="24" t="str">
+        <f>IF(D10="","",D10)</f>
+        <v/>
+      </c>
       <c r="E24" s="25"/>
       <c r="F24" s="25"/>
       <c r="G24" s="25"/>
